--- a/src/predicciones/holt_winters/producto_81.xlsx
+++ b/src/predicciones/holt_winters/producto_81.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,2467 +404,1862 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>1.990886671875746</v>
+        <v>1.549101092090132</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44934</v>
       </c>
       <c r="B3">
-        <v>1.762050669762264</v>
+        <v>1.358052340557593</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44939</v>
       </c>
       <c r="B4">
-        <v>1.926369568111132</v>
+        <v>1.197218058627353</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44941</v>
       </c>
       <c r="B5">
-        <v>2.039754201661968</v>
+        <v>1.18863915660951</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44943</v>
       </c>
       <c r="B6">
-        <v>1.880380635975631</v>
+        <v>1.866427195363398</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44945</v>
       </c>
       <c r="B7">
-        <v>1.899612570802778</v>
+        <v>1.480041415106596</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44950</v>
       </c>
       <c r="B8">
-        <v>1.92738012237537</v>
+        <v>1.585644475629644</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44952</v>
       </c>
       <c r="B9">
-        <v>1.981750526463154</v>
+        <v>1.555945142672506</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44955</v>
       </c>
       <c r="B10">
-        <v>1.752914524349672</v>
+        <v>1.364896391139966</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44956</v>
       </c>
       <c r="B11">
-        <v>1.917233422698541</v>
+        <v>1.204062109209727</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44957</v>
       </c>
       <c r="B12">
-        <v>2.030618056249377</v>
+        <v>1.195483207191884</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44960</v>
       </c>
       <c r="B13">
-        <v>1.87124449056304</v>
+        <v>1.873271245945771</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44961</v>
       </c>
       <c r="B14">
-        <v>1.890476425390186</v>
+        <v>1.486885465688969</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44962</v>
       </c>
       <c r="B15">
-        <v>1.918243976962779</v>
+        <v>1.592488526212018</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44967</v>
       </c>
       <c r="B16">
-        <v>1.972614381050563</v>
+        <v>1.562789193254879</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44969</v>
       </c>
       <c r="B17">
-        <v>1.743778378937081</v>
+        <v>1.37174044172234</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44970</v>
       </c>
       <c r="B18">
-        <v>1.908097277285949</v>
+        <v>1.2109061597921</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44972</v>
       </c>
       <c r="B19">
-        <v>2.021481910836785</v>
+        <v>1.202327257774257</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>44973</v>
       </c>
       <c r="B20">
-        <v>1.862108345150448</v>
+        <v>1.880115296528144</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>44974</v>
       </c>
       <c r="B21">
-        <v>1.881340279977594</v>
+        <v>1.493729516271342</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>44975</v>
       </c>
       <c r="B22">
-        <v>1.909107831550187</v>
+        <v>1.599332576794391</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>44977</v>
       </c>
       <c r="B23">
-        <v>1.963478235637971</v>
+        <v>1.569633243837252</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>44978</v>
       </c>
       <c r="B24">
-        <v>1.734642233524489</v>
+        <v>1.378584492304713</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>44979</v>
       </c>
       <c r="B25">
-        <v>1.898961131873358</v>
+        <v>1.217750210374473</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>44990</v>
       </c>
       <c r="B26">
-        <v>2.012345765424194</v>
+        <v>1.20917130835663</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>44991</v>
       </c>
       <c r="B27">
-        <v>1.852972199737857</v>
+        <v>1.886959347110518</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>44992</v>
       </c>
       <c r="B28">
-        <v>1.872204134565003</v>
+        <v>1.500573566853716</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>44994</v>
       </c>
       <c r="B29">
-        <v>1.899971686137596</v>
+        <v>1.606176627376764</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>44996</v>
       </c>
       <c r="B30">
-        <v>1.95434209022538</v>
+        <v>1.576477294419625</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>44997</v>
       </c>
       <c r="B31">
-        <v>1.725506088111898</v>
+        <v>1.385428542887086</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>44998</v>
       </c>
       <c r="B32">
-        <v>1.889824986460766</v>
+        <v>1.224594260956847</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>44999</v>
       </c>
       <c r="B33">
-        <v>2.003209620011602</v>
+        <v>1.216015358939004</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45000</v>
       </c>
       <c r="B34">
-        <v>1.843836054325265</v>
+        <v>1.893803397692891</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45001</v>
       </c>
       <c r="B35">
-        <v>1.863067989152412</v>
+        <v>1.507417617436089</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45002</v>
       </c>
       <c r="B36">
-        <v>1.890835540725004</v>
+        <v>1.613020677959138</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45004</v>
       </c>
       <c r="B37">
-        <v>1.945205944812788</v>
+        <v>1.583321345001999</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45010</v>
       </c>
       <c r="B38">
-        <v>1.716369942699306</v>
+        <v>1.392272593469459</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45011</v>
       </c>
       <c r="B39">
-        <v>1.880688841048175</v>
+        <v>1.23143831153922</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45020</v>
       </c>
       <c r="B40">
-        <v>1.994073474599011</v>
+        <v>1.222859409521377</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45026</v>
       </c>
       <c r="B41">
-        <v>1.834699908912674</v>
+        <v>1.900647448275264</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45027</v>
       </c>
       <c r="B42">
-        <v>1.85393184373982</v>
+        <v>1.514261668018462</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45032</v>
       </c>
       <c r="B43">
-        <v>1.881699395312413</v>
+        <v>1.619864728541511</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45033</v>
       </c>
       <c r="B44">
-        <v>1.936069799400197</v>
+        <v>1.590165395584372</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45034</v>
       </c>
       <c r="B45">
-        <v>1.707233797286715</v>
+        <v>1.399116644051833</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45037</v>
       </c>
       <c r="B46">
-        <v>1.871552695635583</v>
+        <v>1.238282362121593</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45040</v>
       </c>
       <c r="B47">
-        <v>1.984937329186419</v>
+        <v>1.22970346010375</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45051</v>
       </c>
       <c r="B48">
-        <v>1.825563763500082</v>
+        <v>1.907491498857638</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45053</v>
       </c>
       <c r="B49">
-        <v>1.844795698327228</v>
+        <v>1.521105718600835</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45058</v>
       </c>
       <c r="B50">
-        <v>1.872563249899821</v>
+        <v>1.626708779123884</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45060</v>
       </c>
       <c r="B51">
-        <v>1.926933653987605</v>
+        <v>1.597009446166745</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45061</v>
       </c>
       <c r="B52">
-        <v>1.698097651874123</v>
+        <v>1.405960694634206</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45063</v>
       </c>
       <c r="B53">
-        <v>1.862416550222992</v>
+        <v>1.245126412703966</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45064</v>
       </c>
       <c r="B54">
-        <v>1.975801183773828</v>
+        <v>1.236547510686123</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45069</v>
       </c>
       <c r="B55">
-        <v>1.816427618087491</v>
+        <v>1.914335549440011</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45070</v>
       </c>
       <c r="B56">
-        <v>1.835659552914637</v>
+        <v>1.527949769183209</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45071</v>
       </c>
       <c r="B57">
-        <v>1.863427104487229</v>
+        <v>1.633552829706257</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45072</v>
       </c>
       <c r="B58">
-        <v>1.917797508575014</v>
+        <v>1.603853496749119</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45073</v>
       </c>
       <c r="B59">
-        <v>1.688961506461532</v>
+        <v>1.412804745216579</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45075</v>
       </c>
       <c r="B60">
-        <v>1.8532804048104</v>
+        <v>1.25197046328634</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45078</v>
       </c>
       <c r="B61">
-        <v>1.966665038361236</v>
+        <v>1.243391561268497</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45079</v>
       </c>
       <c r="B62">
-        <v>1.807291472674899</v>
+        <v>1.921179600022384</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45091</v>
       </c>
       <c r="B63">
-        <v>1.826523407502045</v>
+        <v>1.534793819765582</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45100</v>
       </c>
       <c r="B64">
-        <v>1.854290959074638</v>
+        <v>1.640396880288631</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45101</v>
       </c>
       <c r="B65">
-        <v>1.908661363162422</v>
+        <v>1.610697547331492</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45102</v>
       </c>
       <c r="B66">
-        <v>1.67982536104894</v>
+        <v>1.419648795798953</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45104</v>
       </c>
       <c r="B67">
-        <v>1.844144259397809</v>
+        <v>1.258814513868713</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45105</v>
       </c>
       <c r="B68">
-        <v>1.957528892948645</v>
+        <v>1.25023561185087</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45106</v>
       </c>
       <c r="B69">
-        <v>1.798155327262307</v>
+        <v>1.928023650604757</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45108</v>
       </c>
       <c r="B70">
-        <v>1.817387262089454</v>
+        <v>1.541637870347955</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45109</v>
       </c>
       <c r="B71">
-        <v>1.845154813662047</v>
+        <v>1.647240930871004</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45113</v>
       </c>
       <c r="B72">
-        <v>1.899525217749831</v>
+        <v>1.617541597913865</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45116</v>
       </c>
       <c r="B73">
-        <v>1.670689215636349</v>
+        <v>1.426492846381326</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45119</v>
       </c>
       <c r="B74">
-        <v>1.835008113985217</v>
+        <v>1.265658564451086</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45120</v>
       </c>
       <c r="B75">
-        <v>1.948392747536053</v>
+        <v>1.257079662433243</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45126</v>
       </c>
       <c r="B76">
-        <v>1.789019181849716</v>
+        <v>1.934867701187131</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45129</v>
       </c>
       <c r="B77">
-        <v>1.808251116676862</v>
+        <v>1.548481920930329</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45138</v>
       </c>
       <c r="B78">
-        <v>1.836018668249455</v>
+        <v>1.654084981453377</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45139</v>
       </c>
       <c r="B79">
-        <v>1.890389072337239</v>
+        <v>1.624385648496239</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45142</v>
       </c>
       <c r="B80">
-        <v>1.661553070223757</v>
+        <v>1.433336896963699</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45143</v>
       </c>
       <c r="B81">
-        <v>1.825871968572625</v>
+        <v>1.27250261503346</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45145</v>
       </c>
       <c r="B82">
-        <v>1.939256602123462</v>
+        <v>1.263923713015617</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45148</v>
       </c>
       <c r="B83">
-        <v>1.779883036437125</v>
+        <v>1.941711751769504</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45151</v>
       </c>
       <c r="B84">
-        <v>1.799114971264271</v>
+        <v>1.555325971512702</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45157</v>
       </c>
       <c r="B85">
-        <v>1.826882522836863</v>
+        <v>1.660929032035751</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45159</v>
       </c>
       <c r="B86">
-        <v>1.881252926924648</v>
+        <v>1.631229699078612</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45162</v>
       </c>
       <c r="B87">
-        <v>1.652416924811166</v>
+        <v>1.440180947546073</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45163</v>
       </c>
       <c r="B88">
-        <v>1.816735823160034</v>
+        <v>1.279346665615833</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45166</v>
       </c>
       <c r="B89">
-        <v>1.93012045671087</v>
+        <v>1.27076776359799</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45167</v>
       </c>
       <c r="B90">
-        <v>1.770746891024533</v>
+        <v>1.948555802351877</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45170</v>
       </c>
       <c r="B91">
-        <v>1.789978825851679</v>
+        <v>1.562170022095075</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45171</v>
       </c>
       <c r="B92">
-        <v>1.817746377424272</v>
+        <v>1.667773082618124</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45173</v>
       </c>
       <c r="B93">
-        <v>1.872116781512056</v>
+        <v>1.638073749660985</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45174</v>
       </c>
       <c r="B94">
-        <v>1.643280779398574</v>
+        <v>1.447024998128446</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45176</v>
       </c>
       <c r="B95">
-        <v>1.807599677747443</v>
+        <v>1.286190716198206</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45180</v>
       </c>
       <c r="B96">
-        <v>1.920984311298279</v>
+        <v>1.277611814180363</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45181</v>
       </c>
       <c r="B97">
-        <v>1.761610745611941</v>
+        <v>1.955399852934251</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45184</v>
       </c>
       <c r="B98">
-        <v>1.780842680439088</v>
+        <v>1.569014072677449</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45185</v>
       </c>
       <c r="B99">
-        <v>1.80861023201168</v>
+        <v>1.674617133200497</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45186</v>
       </c>
       <c r="B100">
-        <v>1.862980636099465</v>
+        <v>1.644917800243358</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
+      <c r="A101" s="2">
+        <v>45189</v>
       </c>
       <c r="B101">
-        <v>1.634144633985983</v>
+        <v>1.453869048710819</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
+      <c r="A102" s="2">
+        <v>45190</v>
       </c>
       <c r="B102">
-        <v>1.798463532334851</v>
+        <v>1.293034766780579</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
+      <c r="A103" s="2">
+        <v>45192</v>
       </c>
       <c r="B103">
-        <v>1.911848165885687</v>
+        <v>1.284455864762736</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
+      <c r="A104" s="2">
+        <v>45195</v>
       </c>
       <c r="B104">
-        <v>1.75247460019935</v>
+        <v>1.962243903516624</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
+      <c r="A105" s="2">
+        <v>45197</v>
       </c>
       <c r="B105">
-        <v>1.771706535026496</v>
+        <v>1.575858123259822</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
+      <c r="A106" s="2">
+        <v>45198</v>
       </c>
       <c r="B106">
-        <v>1.799474086599089</v>
+        <v>1.681461183782871</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
+      <c r="A107" s="2">
+        <v>45202</v>
       </c>
       <c r="B107">
-        <v>1.853844490686873</v>
+        <v>1.651761850825732</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
+      <c r="A108" s="2">
+        <v>45205</v>
       </c>
       <c r="B108">
-        <v>1.625008488573391</v>
+        <v>1.460713099293192</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
+      <c r="A109" s="2">
+        <v>45206</v>
       </c>
       <c r="B109">
-        <v>1.789327386922259</v>
+        <v>1.299878817362953</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
+      <c r="A110" s="2">
+        <v>45209</v>
       </c>
       <c r="B110">
-        <v>1.902712020473096</v>
+        <v>1.29129991534511</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
+      <c r="A111" s="2">
+        <v>45210</v>
       </c>
       <c r="B111">
-        <v>1.743338454786758</v>
+        <v>1.969087954098997</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
+      <c r="A112" s="2">
+        <v>45212</v>
       </c>
       <c r="B112">
-        <v>1.762570389613905</v>
+        <v>1.582702173842195</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
+      <c r="A113" s="2">
+        <v>45216</v>
       </c>
       <c r="B113">
-        <v>1.790337941186497</v>
+        <v>1.688305234365244</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
+      <c r="A114" s="2">
+        <v>45219</v>
       </c>
       <c r="B114">
-        <v>1.844708345274282</v>
+        <v>1.658605901408105</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
+      <c r="A115" s="2">
+        <v>45223</v>
       </c>
       <c r="B115">
-        <v>1.6158723431608</v>
+        <v>1.467557149875566</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
+      <c r="A116" s="2">
+        <v>45224</v>
       </c>
       <c r="B116">
-        <v>1.780191241509668</v>
+        <v>1.306722867945326</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="1">
-        <v>115</v>
+      <c r="A117" s="2">
+        <v>45225</v>
       </c>
       <c r="B117">
-        <v>1.893575875060504</v>
+        <v>1.298143965927483</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="1">
-        <v>116</v>
+      <c r="A118" s="2">
+        <v>45227</v>
       </c>
       <c r="B118">
-        <v>1.734202309374167</v>
+        <v>1.97593200468137</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="1">
-        <v>117</v>
+      <c r="A119" s="2">
+        <v>45228</v>
       </c>
       <c r="B119">
-        <v>1.753434244201313</v>
+        <v>1.589546224424568</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="1">
-        <v>118</v>
+      <c r="A120" s="2">
+        <v>45229</v>
       </c>
       <c r="B120">
-        <v>1.781201795773906</v>
+        <v>1.695149284947617</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1">
-        <v>119</v>
+      <c r="A121" s="2">
+        <v>45230</v>
       </c>
       <c r="B121">
-        <v>1.83557219986169</v>
+        <v>1.665449951990478</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="1">
-        <v>120</v>
+      <c r="A122" s="2">
+        <v>45233</v>
       </c>
       <c r="B122">
-        <v>1.606736197748208</v>
+        <v>1.474401200457939</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="1">
-        <v>121</v>
+      <c r="A123" s="2">
+        <v>45234</v>
       </c>
       <c r="B123">
-        <v>1.771055096097076</v>
+        <v>1.313566918527699</v>
       </c>
       <c r="C123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="1">
-        <v>122</v>
+      <c r="A124" s="2">
+        <v>45238</v>
       </c>
       <c r="B124">
-        <v>1.884439729647913</v>
+        <v>1.304988016509856</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="1">
-        <v>123</v>
+      <c r="A125" s="2">
+        <v>45242</v>
       </c>
       <c r="B125">
-        <v>1.725066163961575</v>
+        <v>1.982776055263744</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="1">
-        <v>124</v>
+      <c r="A126" s="2">
+        <v>45243</v>
       </c>
       <c r="B126">
-        <v>1.744298098788722</v>
+        <v>1.596390275006942</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="1">
-        <v>125</v>
+      <c r="A127" s="2">
+        <v>45245</v>
       </c>
       <c r="B127">
-        <v>1.772065650361314</v>
+        <v>1.70199333552999</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="1">
-        <v>126</v>
+      <c r="A128" s="2">
+        <v>45247</v>
       </c>
       <c r="B128">
-        <v>1.826436054449099</v>
+        <v>1.672294002572852</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="1">
-        <v>127</v>
+      <c r="A129" s="2">
+        <v>45252</v>
       </c>
       <c r="B129">
-        <v>1.597600052335617</v>
+        <v>1.481245251040312</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="1">
-        <v>128</v>
+      <c r="A130" s="2">
+        <v>45253</v>
       </c>
       <c r="B130">
-        <v>1.761918950684485</v>
+        <v>1.320410969110072</v>
       </c>
       <c r="C130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>129</v>
+      <c r="A131" s="2">
+        <v>45254</v>
       </c>
       <c r="B131">
-        <v>1.875303584235321</v>
+        <v>1.31183206709223</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
-        <v>130</v>
+      <c r="A132" s="2">
+        <v>45257</v>
       </c>
       <c r="B132">
-        <v>1.715930018548984</v>
+        <v>1.989620105846117</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="1">
-        <v>131</v>
+      <c r="A133" s="2">
+        <v>45258</v>
       </c>
       <c r="B133">
-        <v>1.73516195337613</v>
+        <v>1.603234325589315</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="1">
-        <v>132</v>
+      <c r="A134" s="2">
+        <v>45259</v>
       </c>
       <c r="B134">
-        <v>1.762929504948723</v>
+        <v>1.708837386112364</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>133</v>
+      <c r="A135" s="2">
+        <v>45263</v>
       </c>
       <c r="B135">
-        <v>1.817299909036507</v>
+        <v>1.679138053155225</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>134</v>
+      <c r="A136" s="2">
+        <v>45271</v>
       </c>
       <c r="B136">
-        <v>1.588463906923025</v>
+        <v>1.488089301622685</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>135</v>
+      <c r="A137" s="2">
+        <v>45274</v>
       </c>
       <c r="B137">
-        <v>1.752782805271893</v>
+        <v>1.327255019692446</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="1">
-        <v>136</v>
+      <c r="A138" s="2">
+        <v>45276</v>
       </c>
       <c r="B138">
-        <v>1.86616743882273</v>
+        <v>1.318676117674603</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1">
-        <v>137</v>
+      <c r="A139" s="2">
+        <v>45277</v>
       </c>
       <c r="B139">
-        <v>1.706793873136392</v>
+        <v>1.99646415642849</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="1">
-        <v>138</v>
+      <c r="A140" s="2">
+        <v>45280</v>
       </c>
       <c r="B140">
-        <v>1.726025807963539</v>
+        <v>1.610078376171688</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="1">
-        <v>139</v>
+      <c r="A141" s="2">
+        <v>45287</v>
       </c>
       <c r="B141">
-        <v>1.753793359536131</v>
+        <v>1.715681436694737</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="1">
-        <v>140</v>
+      <c r="A142" s="2">
+        <v>45289</v>
       </c>
       <c r="B142">
-        <v>1.808163763623916</v>
+        <v>1.685982103737598</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="1">
-        <v>141</v>
+      <c r="A143" s="2">
+        <v>45290</v>
       </c>
       <c r="B143">
-        <v>1.579327761510434</v>
+        <v>1.494933352205059</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1">
-        <v>142</v>
+      <c r="A144" s="2">
+        <v>45294</v>
       </c>
       <c r="B144">
-        <v>1.743646659859302</v>
+        <v>1.334099070274819</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>143</v>
+      <c r="A145" s="2">
+        <v>45295</v>
       </c>
       <c r="B145">
-        <v>1.857031293410138</v>
+        <v>1.325520168256976</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>144</v>
+      <c r="A146" s="2">
+        <v>45296</v>
       </c>
       <c r="B146">
-        <v>1.697657727723801</v>
+        <v>2.003308207010864</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" s="1">
-        <v>145</v>
+      <c r="A147" s="2">
+        <v>45306</v>
       </c>
       <c r="B147">
-        <v>1.716889662550947</v>
+        <v>1.616922426754062</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>146</v>
+      <c r="A148" s="2">
+        <v>45307</v>
       </c>
       <c r="B148">
-        <v>1.74465721412354</v>
+        <v>1.72252548727711</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="1">
-        <v>147</v>
+      <c r="A149" s="2">
+        <v>45309</v>
       </c>
       <c r="B149">
-        <v>1.799027618211324</v>
+        <v>1.692826154319971</v>
       </c>
       <c r="C149">
         <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>148</v>
+      <c r="A150" s="2">
+        <v>45310</v>
       </c>
       <c r="B150">
-        <v>1.570191616097842</v>
+        <v>1.501777402787432</v>
       </c>
       <c r="C150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="1">
-        <v>149</v>
+      <c r="A151" s="2">
+        <v>45313</v>
       </c>
       <c r="B151">
-        <v>1.73451051444671</v>
+        <v>1.340943120857192</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>150</v>
+      <c r="A152" s="2">
+        <v>45314</v>
       </c>
       <c r="B152">
-        <v>1.847895147997547</v>
+        <v>1.33236421883935</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="1">
-        <v>151</v>
+      <c r="A153" s="2">
+        <v>45317</v>
       </c>
       <c r="B153">
-        <v>1.688521582311209</v>
+        <v>2.010152257593237</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>152</v>
+      <c r="A154" s="2">
+        <v>45320</v>
       </c>
       <c r="B154">
-        <v>1.707753517138356</v>
+        <v>1.623766477336435</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="1">
-        <v>153</v>
+      <c r="A155" s="2">
+        <v>45321</v>
       </c>
       <c r="B155">
-        <v>1.735521068710948</v>
+        <v>1.729369537859484</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>154</v>
+      <c r="A156" s="2">
+        <v>45322</v>
       </c>
       <c r="B156">
-        <v>1.789891472798733</v>
+        <v>1.699670204902345</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>155</v>
+      <c r="A157" s="2">
+        <v>45323</v>
       </c>
       <c r="B157">
-        <v>1.56105547068525</v>
+        <v>1.508621453369805</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="1">
-        <v>156</v>
+      <c r="A158" s="2">
+        <v>45325</v>
       </c>
       <c r="B158">
-        <v>1.725374369034119</v>
+        <v>1.347787171439566</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="1">
-        <v>157</v>
+      <c r="A159" s="2">
+        <v>45326</v>
       </c>
       <c r="B159">
-        <v>1.838759002584955</v>
+        <v>1.339208269421723</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="1">
-        <v>158</v>
+      <c r="A160" s="2">
+        <v>45327</v>
       </c>
       <c r="B160">
-        <v>1.679385436898618</v>
+        <v>2.01699630817561</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>159</v>
+      <c r="A161" s="2">
+        <v>45329</v>
       </c>
       <c r="B161">
-        <v>1.698617371725764</v>
+        <v>1.630610527918808</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>160</v>
+      <c r="A162" s="2">
+        <v>45330</v>
       </c>
       <c r="B162">
-        <v>1.726384923298357</v>
+        <v>1.736213588441857</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="1">
-        <v>161</v>
+      <c r="A163" s="2">
+        <v>45332</v>
       </c>
       <c r="B163">
-        <v>1.780755327386141</v>
+        <v>1.706514255484718</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="1">
-        <v>162</v>
+      <c r="A164" s="2">
+        <v>45334</v>
       </c>
       <c r="B164">
-        <v>1.551919325272659</v>
+        <v>1.515465503952178</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>163</v>
+      <c r="A165" s="2">
+        <v>45336</v>
       </c>
       <c r="B165">
-        <v>1.716238223621527</v>
+        <v>1.354631222021939</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="1">
-        <v>164</v>
+      <c r="A166" s="2">
+        <v>45341</v>
       </c>
       <c r="B166">
-        <v>1.829622857172364</v>
+        <v>1.346052320004096</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="1">
-        <v>165</v>
+      <c r="A167" s="2">
+        <v>45342</v>
       </c>
       <c r="B167">
-        <v>1.670249291486026</v>
+        <v>2.023840358757983</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="1">
-        <v>166</v>
+      <c r="A168" s="2">
+        <v>45343</v>
       </c>
       <c r="B168">
-        <v>1.689481226313173</v>
+        <v>1.637454578501181</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="1">
-        <v>167</v>
+      <c r="A169" s="2">
+        <v>45344</v>
       </c>
       <c r="B169">
-        <v>1.717248777885765</v>
+        <v>1.74305763902423</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>168</v>
+      <c r="A170" s="2">
+        <v>45348</v>
       </c>
       <c r="B170">
-        <v>1.771619181973549</v>
+        <v>1.713358306067091</v>
       </c>
       <c r="C170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>1.542783179860067</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>1.707102078208936</v>
-      </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>1.820486711759772</v>
-      </c>
-      <c r="C173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>1.661113146073435</v>
-      </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>1.680345080900581</v>
-      </c>
-      <c r="C175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>1.708112632473174</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>1.762483036560958</v>
-      </c>
-      <c r="C177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>1.533647034447476</v>
-      </c>
-      <c r="C178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>1.697965932796344</v>
-      </c>
-      <c r="C179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>1.811350566347181</v>
-      </c>
-      <c r="C180">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>1.651977000660843</v>
-      </c>
-      <c r="C181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>1.67120893548799</v>
-      </c>
-      <c r="C182">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>1.698976487060582</v>
-      </c>
-      <c r="C183">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>1.753346891148367</v>
-      </c>
-      <c r="C184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>1.524510889034884</v>
-      </c>
-      <c r="C185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>1.688829787383753</v>
-      </c>
-      <c r="C186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>1.802214420934589</v>
-      </c>
-      <c r="C187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>1.642840855248252</v>
-      </c>
-      <c r="C188">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>1.662072790075398</v>
-      </c>
-      <c r="C189">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>1.689840341647991</v>
-      </c>
-      <c r="C190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>1.744210745735775</v>
-      </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>1.515374743622293</v>
-      </c>
-      <c r="C192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>1.679693641971161</v>
-      </c>
-      <c r="C193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>1.793078275521998</v>
-      </c>
-      <c r="C194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>1.63370470983566</v>
-      </c>
-      <c r="C195">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>1.652936644662807</v>
-      </c>
-      <c r="C196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>1.680704196235399</v>
-      </c>
-      <c r="C197">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>1.735074600323183</v>
-      </c>
-      <c r="C198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>1.506238598209701</v>
-      </c>
-      <c r="C199">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>1.67055749655857</v>
-      </c>
-      <c r="C200">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>1.783942130109406</v>
-      </c>
-      <c r="C201">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>1.624568564423069</v>
-      </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>1.643800499250215</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>1.671568050822808</v>
-      </c>
-      <c r="C204">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>1.725938454910592</v>
-      </c>
-      <c r="C205">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>1.49710245279711</v>
-      </c>
-      <c r="C206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>1.661421351145978</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>1.774805984696814</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>1.615432419010477</v>
-      </c>
-      <c r="C209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>1.634664353837624</v>
-      </c>
-      <c r="C210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>1.662431905410216</v>
-      </c>
-      <c r="C211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>1.716802309498</v>
-      </c>
-      <c r="C212">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
-        <v>1.487966307384518</v>
-      </c>
-      <c r="C213">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>1.652285205733387</v>
-      </c>
-      <c r="C214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>1.765669839284223</v>
-      </c>
-      <c r="C215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>1.606296273597886</v>
-      </c>
-      <c r="C216">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>215</v>
-      </c>
-      <c r="B217">
-        <v>1.625528208425032</v>
-      </c>
-      <c r="C217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="1">
-        <v>216</v>
-      </c>
-      <c r="B218">
-        <v>1.653295759997625</v>
-      </c>
-      <c r="C218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="1">
-        <v>217</v>
-      </c>
-      <c r="B219">
-        <v>1.707666164085409</v>
-      </c>
-      <c r="C219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>1.478830161971927</v>
-      </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>1.643149060320795</v>
-      </c>
-      <c r="C221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222">
-        <v>1.756533693871631</v>
-      </c>
-      <c r="C222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="1">
-        <v>221</v>
-      </c>
-      <c r="B223">
-        <v>1.597160128185294</v>
-      </c>
-      <c r="C223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1">
-        <v>222</v>
-      </c>
-      <c r="B224">
-        <v>1.61639206301244</v>
-      </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
-        <v>1.644159614585033</v>
-      </c>
-      <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
